--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -397,7 +397,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,17 +397,17 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.05078125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.15625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.68359375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -438,7 +438,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -449,7 +449,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -460,7 +460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -471,7 +471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -482,7 +482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,17 +397,17 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.15625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.68359375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -438,7 +438,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -449,7 +449,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -460,7 +460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -471,7 +471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -482,7 +482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>9</v>
       </c>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -397,7 +397,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="E5" sqref="E5:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Bunk</t>
   </si>
@@ -40,12 +40,6 @@
     <t>Late</t>
   </si>
   <si>
-    <t>Ozeret</t>
-  </si>
-  <si>
-    <t>Curfew</t>
-  </si>
-  <si>
     <t>Bunk 1</t>
   </si>
   <si>
@@ -74,6 +68,15 @@
   </si>
   <si>
     <t>Staff Member 4 ID</t>
+  </si>
+  <si>
+    <t>Normal Curfew</t>
+  </si>
+  <si>
+    <t>Night Off Curfew</t>
+  </si>
+  <si>
+    <t>Day Off Curfew</t>
   </si>
 </sst>
 </file>
@@ -109,8 +112,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -394,20 +398,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:G9"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.15625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.68359375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,76 +431,88 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E6" sqref="E6:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,5 +515,6 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,10 +5,11 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Attendance" sheetId="1" r:id="rId1"/>
+    <sheet name="Key" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Bunk</t>
   </si>
@@ -400,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,4 +518,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>Bunk</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>Day Off Curfew</t>
+  </si>
+  <si>
+    <t>Bunk 3</t>
+  </si>
+  <si>
+    <t>Staff Member 5</t>
+  </si>
+  <si>
+    <t>Staff Member 5 ID</t>
   </si>
 </sst>
 </file>
@@ -401,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,10 +531,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,6 +598,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -71,9 +71,6 @@
     <t>Staff Member 4 ID</t>
   </si>
   <si>
-    <t>Normal Curfew</t>
-  </si>
-  <si>
     <t>Night Off Curfew</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>Staff Member 5 ID</t>
+  </si>
+  <si>
+    <t>Leaving Camp Curfew</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +443,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -454,7 +454,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -465,7 +465,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -600,13 +600,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>Bunk</t>
   </si>
@@ -87,12 +87,28 @@
   </si>
   <si>
     <t>Leaving Camp Curfew</t>
+  </si>
+  <si>
+    <t>03/30/2022</t>
+  </si>
+  <si>
+    <t>1:00 AM</t>
+  </si>
+  <si>
+    <t>5:00 PM</t>
+  </si>
+  <si>
+    <t>12:55 PM (1:00 AM)</t>
+  </si>
+  <si>
+    <t>12:58 PM (5:00 PM)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,12 +118,32 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="B7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="B7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE599"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -122,12 +158,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,17 +449,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="8" max="8" width="19.01953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -439,6 +481,9 @@
       </c>
       <c r="G1" t="s">
         <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -451,6 +496,9 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -462,6 +510,9 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -473,6 +524,9 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -506,16 +560,28 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H9" t="s" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H10" t="s" s="6">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -539,8 +605,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.7109375" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>Bunk</t>
   </si>
@@ -102,13 +102,18 @@
   </si>
   <si>
     <t>12:58 PM (5:00 PM)</t>
+  </si>
+  <si>
+    <t>04/10/2022</t>
+  </si>
+  <si>
+    <t>Position</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,23 +131,8 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="B7E1CD"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="B7E1CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFE599"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE599"/>
+        <fgColor rgb="FFB7E1CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -158,17 +148,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,23 +436,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="8" max="8" width="19.01953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -485,50 +473,62 @@
       <c r="H1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
       <c r="H2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -550,7 +550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -560,14 +560,14 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H9" t="s" s="3">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -577,10 +577,10 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H10" t="s" s="6">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -599,14 +599,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.7109375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="false"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,11 +5,11 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Attendance" sheetId="1" r:id="rId1"/>
-    <sheet name="Key" sheetId="2" r:id="rId2"/>
+    <sheet name="Key" sheetId="2" r:id="rId1"/>
+    <sheet name="Daily Attendance Template" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Bunk</t>
   </si>
@@ -89,25 +89,22 @@
     <t>Leaving Camp Curfew</t>
   </si>
   <si>
-    <t>03/30/2022</t>
-  </si>
-  <si>
-    <t>1:00 AM</t>
-  </si>
-  <si>
-    <t>5:00 PM</t>
-  </si>
-  <si>
-    <t>12:55 PM (1:00 AM)</t>
-  </si>
-  <si>
-    <t>12:58 PM (5:00 PM)</t>
-  </si>
-  <si>
-    <t>04/10/2022</t>
-  </si>
-  <si>
     <t>Position</t>
+  </si>
+  <si>
+    <t># Left Camp</t>
+  </si>
+  <si>
+    <t># Returned to Camp</t>
+  </si>
+  <si>
+    <t># Still out of Camp</t>
+  </si>
+  <si>
+    <t>Time Out</t>
+  </si>
+  <si>
+    <t>Time In</t>
   </si>
 </sst>
 </file>
@@ -123,17 +120,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7E1CD"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,11 +143,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,171 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,18 +442,32 @@
     <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -630,8 +477,11 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -641,8 +491,11 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -653,7 +506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -664,7 +517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -678,4 +531,109 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6">
+        <f>COUNTA(A:A) - COUNTA(A1:A8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7">
+        <f>D6-D8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8">
+        <f>(COUNTIF(F:F, "=Day Off") + COUNTIF(F:F, "=Night Off") +  COUNTIF(F:F, "=Left Camp")) - (COUNTIF(F1:F8, "=Day Off") + COUNTIF(F1:F8, "=Night Off") +  COUNTIF(F1:F8, "=Left Camp"))</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
-  <si>
-    <t>Bunk</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -128,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -136,20 +133,144 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,56 +551,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -488,44 +620,30 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -535,103 +653,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="10.7109375" customWidth="1"/>
+    <col min="7" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="G2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="G3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="G4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="6">
+        <f>COUNTA(B:B) - COUNTA(B1:B8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6">
-        <f>COUNTA(A:A) - COUNTA(A1:A8)</f>
+      <c r="H7" s="16"/>
+      <c r="I7" s="6">
+        <f>I6-I8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7">
-        <f>D6-D8</f>
+      <c r="H8" s="14"/>
+      <c r="I8" s="7">
+        <f>(COUNTIF(E:E, "=Day Off") + COUNTIF(E:E, "=Night Off") +  COUNTIF(E:E, "=Left Camp")) - (COUNTIF(E1:E8, "=Day Off") + COUNTIF(E1:E8, "=Night Off") +  COUNTIF(E1:E8, "=Left Camp"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8">
-        <f>(COUNTIF(F:F, "=Day Off") + COUNTIF(F:F, "=Night Off") +  COUNTIF(F:F, "=Left Camp")) - (COUNTIF(F1:F8, "=Day Off") + COUNTIF(F1:F8, "=Night Off") +  COUNTIF(F1:F8, "=Left Camp"))</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
+  <mergeCells count="7">
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -8,8 +8,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Key" sheetId="2" r:id="rId1"/>
-    <sheet name="Daily Attendance Template" sheetId="1" r:id="rId2"/>
+    <sheet name="04-13-2022" sheetId="3" r:id="rId1"/>
+    <sheet name="Key" sheetId="2" r:id="rId2"/>
+    <sheet name="Daily Attendance Template" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -102,6 +103,12 @@
   </si>
   <si>
     <t>Time In</t>
+  </si>
+  <si>
+    <t>1:00 AM</t>
+  </si>
+  <si>
+    <t>5:00 PM</t>
   </si>
 </sst>
 </file>
@@ -551,9 +558,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="G2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="G3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="G4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="6">
+        <f>COUNTA(B:B) - COUNTA(B1:B8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="6">
+        <f>I6-I8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="7">
+        <f>(COUNTIF(E:E, "=Day Off") + COUNTIF(E:E, "=Night Off") +  COUNTIF(E:E, "=Leaving Camp")) - (COUNTIF(E1:E8, "=Day Off") + COUNTIF(E1:E8, "=Night Off") +  COUNTIF(E1:E8, "=Left Camp"))</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -651,7 +782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,12 +5,11 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="04-13-2022" sheetId="3" r:id="rId1"/>
-    <sheet name="Key" sheetId="2" r:id="rId2"/>
-    <sheet name="Daily Attendance Template" sheetId="1" r:id="rId3"/>
+    <sheet name="Key" sheetId="2" r:id="rId1"/>
+    <sheet name="Daily Attendance Template" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -103,12 +102,6 @@
   </si>
   <si>
     <t>Time In</t>
-  </si>
-  <si>
-    <t>1:00 AM</t>
-  </si>
-  <si>
-    <t>5:00 PM</t>
   </si>
 </sst>
 </file>
@@ -558,10 +551,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="10.7109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,8 +663,7 @@
     <col min="1" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
     <col min="4" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -597,9 +690,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="18"/>
-      <c r="I2" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
@@ -608,9 +699,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="16"/>
-      <c r="I3" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="3"/>
@@ -619,9 +708,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="14"/>
-      <c r="I4" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="3"/>
@@ -637,10 +724,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="16"/>
-      <c r="I6" s="6">
-        <f>COUNTA(B:B) - COUNTA(B1:B8)</f>
-        <v>0</v>
-      </c>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="3"/>
@@ -649,10 +733,7 @@
         <v>23</v>
       </c>
       <c r="H7" s="16"/>
-      <c r="I7" s="6">
-        <f>I6-I8</f>
-        <v>0</v>
-      </c>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
@@ -662,231 +743,12 @@
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="7">
-        <f>(COUNTIF(E:E, "=Day Off") + COUNTIF(E:E, "=Night Off") +  COUNTIF(E:E, "=Leaving Camp")) - (COUNTIF(E1:E8, "=Day Off") + COUNTIF(E1:E8, "=Night Off") +  COUNTIF(E1:E8, "=Left Camp"))</f>
+        <f>I6-I7</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="10.7109375" customWidth="1"/>
-    <col min="7" max="9" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="G2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="G4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="6">
-        <f>COUNTA(B:B) - COUNTA(B1:B8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="6">
-        <f>I6-I8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="7">
-        <f>(COUNTIF(E:E, "=Day Off") + COUNTIF(E:E, "=Night Off") +  COUNTIF(E:E, "=Left Camp")) - (COUNTIF(E1:E8, "=Day Off") + COUNTIF(E1:E8, "=Night Off") +  COUNTIF(E1:E8, "=Left Camp"))</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G5:H5"/>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -554,14 +554,17 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D2" sqref="D2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -655,7 +658,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,15 +5,16 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
+    <sheet name="04-15-2022" r:id="rId6" sheetId="3"/>
     <sheet name="Daily Attendance Template" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -102,12 +103,25 @@
   </si>
   <si>
     <t>Time In</t>
+  </si>
+  <si>
+    <t>1:00 AM</t>
+  </si>
+  <si>
+    <t>5:00 PM</t>
+  </si>
+  <si>
+    <t>2:42 PM</t>
+  </si>
+  <si>
+    <t>Visitor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,15 +131,35 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="00A7E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A7E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EA9999"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -233,11 +267,14 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -271,6 +308,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,18 +593,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.2578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.44921875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.84765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.3125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -611,7 +651,9 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
@@ -646,6 +688,9 @@
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -657,16 +702,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -745,10 +790,7 @@
         <v>24</v>
       </c>
       <c r="H8" s="14"/>
-      <c r="I8" s="7">
-        <f>I6-I7</f>
-        <v>0</v>
-      </c>
+      <c r="I8" s="7"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -764,4 +806,135 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="false" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" customWidth="true" width="8.484375" collapsed="true" bestFit="true"/>
+    <col min="2" max="2" customWidth="true" width="15.04296875" collapsed="true" bestFit="true"/>
+    <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="8.2578125" collapsed="true" bestFit="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="17.44921875" collapsed="true" bestFit="true"/>
+    <col min="4" max="4" customWidth="true" width="9.3125" collapsed="true" bestFit="true"/>
+    <col min="9" max="9" customWidth="true" width="8.62109375" collapsed="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="21">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s" s="20">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="G3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="G4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="7"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="7">
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -818,13 +818,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" customWidth="true" width="8.484375" collapsed="true" bestFit="true"/>
-    <col min="2" max="2" customWidth="true" width="15.04296875" collapsed="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.2578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.44921875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.3125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.484375" collapsed="true"/>
     <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="1" max="1" customWidth="true" width="8.2578125" collapsed="true" bestFit="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="17.44921875" collapsed="true" bestFit="true"/>
-    <col min="4" max="4" customWidth="true" width="9.3125" collapsed="true" bestFit="true"/>
-    <col min="9" max="9" customWidth="true" width="8.62109375" collapsed="true" bestFit="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.62109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,16 +5,15 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
-    <sheet name="04-15-2022" r:id="rId6" sheetId="3"/>
     <sheet name="Daily Attendance Template" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -103,25 +102,12 @@
   </si>
   <si>
     <t>Time In</t>
-  </si>
-  <si>
-    <t>1:00 AM</t>
-  </si>
-  <si>
-    <t>5:00 PM</t>
-  </si>
-  <si>
-    <t>2:42 PM</t>
-  </si>
-  <si>
-    <t>Visitor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,35 +117,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="00A7E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A7E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="EA9999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="EA9999"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -267,14 +233,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <right style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -308,9 +271,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,18 +553,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.2578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.04296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.44921875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.84765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.3125" collapsed="true"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -651,9 +611,7 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
@@ -688,9 +646,6 @@
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -702,16 +657,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="9" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -806,135 +761,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.2578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.04296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.44921875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.3125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.484375" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.62109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s" s="21">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s" s="20">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="G4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="7">
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -9,11 +9,12 @@
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
+    <sheet name="04-20-2022" r:id="rId6" sheetId="3"/>
     <sheet name="Daily Attendance Template" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -102,12 +103,28 @@
   </si>
   <si>
     <t>Time In</t>
+  </si>
+  <si>
+    <t>1:00 AM</t>
+  </si>
+  <si>
+    <t>5:00 PM</t>
+  </si>
+  <si>
+    <t>10:12 PM</t>
+  </si>
+  <si>
+    <t>Leaving Camp</t>
+  </si>
+  <si>
+    <t>10:13 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,15 +134,35 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="00A7E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A7E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EA9999"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -233,11 +270,14 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -271,6 +311,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,12 +605,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -663,10 +709,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -761,4 +807,150 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="false">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.62109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="21">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s" s="20">
+        <v>30</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="24">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s" s="23">
+        <v>30</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="G4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="7">
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -9,12 +9,11 @@
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
-    <sheet name="04-20-2022" r:id="rId6" sheetId="3"/>
     <sheet name="Daily Attendance Template" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -103,28 +102,12 @@
   </si>
   <si>
     <t>Time In</t>
-  </si>
-  <si>
-    <t>1:00 AM</t>
-  </si>
-  <si>
-    <t>5:00 PM</t>
-  </si>
-  <si>
-    <t>10:12 PM</t>
-  </si>
-  <si>
-    <t>Leaving Camp</t>
-  </si>
-  <si>
-    <t>10:13 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,35 +117,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="00A7E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A7E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="EA9999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="EA9999"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -270,14 +233,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <right style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -311,12 +271,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,17 +554,17 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -709,10 +663,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="9" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -807,150 +761,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="false">
-      <selection activeCell="O5" sqref="O5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.62109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s" s="21">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s" s="20">
-        <v>30</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s" s="24">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s" s="23">
-        <v>30</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="G4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="6" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="7" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="7">
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -554,7 +554,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +658,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -554,7 +554,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -9,11 +9,12 @@
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
+    <sheet name="04-21-2022" r:id="rId6" sheetId="3"/>
     <sheet name="Daily Attendance Template" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -102,12 +103,43 @@
   </si>
   <si>
     <t>Time In</t>
+  </si>
+  <si>
+    <t>1:00 AM</t>
+  </si>
+  <si>
+    <t>5:00 PM</t>
+  </si>
+  <si>
+    <t>12:10 PM</t>
+  </si>
+  <si>
+    <t>Leaving Camp</t>
+  </si>
+  <si>
+    <t>12:12 PM</t>
+  </si>
+  <si>
+    <t>Night Off</t>
+  </si>
+  <si>
+    <t>Day Off</t>
+  </si>
+  <si>
+    <t>Visitor</t>
+  </si>
+  <si>
+    <t>12:22 PM</t>
+  </si>
+  <si>
+    <t>12:26 PM (visitor)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,15 +149,55 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="00A7E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A7E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="B7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="B7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE599"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -233,11 +305,14 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -271,6 +346,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,12 +650,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.2578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.44921875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.84765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.3125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -597,7 +688,9 @@
       <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="n">
+        <v>1.0</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
@@ -663,10 +756,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -761,4 +854,180 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="false">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" customWidth="true" width="9.6015625" collapsed="true" bestFit="true"/>
+    <col min="2" max="2" customWidth="true" width="15.04296875" collapsed="true" bestFit="true"/>
+    <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="8.2578125" collapsed="true" bestFit="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="17.44921875" collapsed="true" bestFit="true"/>
+    <col min="4" max="4" customWidth="true" width="9.6015625" collapsed="true" bestFit="true"/>
+    <col min="9" max="9" customWidth="true" width="8.62109375" collapsed="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="21">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s" s="32">
+        <v>35</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="24">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s" s="27">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s" s="25">
+        <v>33</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s" s="29">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="34">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="6" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="7" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="7">
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,16 +5,15 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
-    <sheet name="04-21-2022" r:id="rId6" sheetId="3"/>
     <sheet name="Daily Attendance Template" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -103,43 +102,12 @@
   </si>
   <si>
     <t>Time In</t>
-  </si>
-  <si>
-    <t>1:00 AM</t>
-  </si>
-  <si>
-    <t>5:00 PM</t>
-  </si>
-  <si>
-    <t>12:10 PM</t>
-  </si>
-  <si>
-    <t>Leaving Camp</t>
-  </si>
-  <si>
-    <t>12:12 PM</t>
-  </si>
-  <si>
-    <t>Night Off</t>
-  </si>
-  <si>
-    <t>Day Off</t>
-  </si>
-  <si>
-    <t>Visitor</t>
-  </si>
-  <si>
-    <t>12:22 PM</t>
-  </si>
-  <si>
-    <t>12:26 PM (visitor)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,55 +117,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="00A7E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A7E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="EA9999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="EA9999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="B7E1CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="B7E1CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFE599"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE599"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -305,14 +233,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <right style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -346,22 +271,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,18 +553,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.2578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.04296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.44921875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.84765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.3125" collapsed="true"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -688,8 +597,8 @@
       <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>1.0</v>
+      <c r="D2" s="1">
+        <v>1</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -750,16 +659,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="9" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -854,180 +763,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="false">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" customWidth="true" width="9.6015625" collapsed="true" bestFit="true"/>
-    <col min="2" max="2" customWidth="true" width="15.04296875" collapsed="true" bestFit="true"/>
-    <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="1" max="1" customWidth="true" width="8.2578125" collapsed="true" bestFit="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="17.44921875" collapsed="true" bestFit="true"/>
-    <col min="4" max="4" customWidth="true" width="9.6015625" collapsed="true" bestFit="true"/>
-    <col min="9" max="9" customWidth="true" width="8.62109375" collapsed="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s" s="21">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s" s="32">
-        <v>35</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s" s="24">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s" s="23">
-        <v>32</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s" s="27">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s" s="25">
-        <v>33</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s" s="29">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s" s="34">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="6" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="6" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="7" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="7">
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -74,15 +74,6 @@
     <t>Day Off Curfew</t>
   </si>
   <si>
-    <t>Bunk 3</t>
-  </si>
-  <si>
-    <t>Staff Member 5</t>
-  </si>
-  <si>
-    <t>Staff Member 5 ID</t>
-  </si>
-  <si>
     <t>Leaving Camp Curfew</t>
   </si>
   <si>
@@ -102,6 +93,24 @@
   </si>
   <si>
     <t>Time In</t>
+  </si>
+  <si>
+    <t># Visitors on Camp</t>
+  </si>
+  <si>
+    <t>Visitor</t>
+  </si>
+  <si>
+    <t>Visitor 1</t>
+  </si>
+  <si>
+    <t>Visitor 1 ID</t>
+  </si>
+  <si>
+    <t>Visitor 2</t>
+  </si>
+  <si>
+    <t>Visitor 2 ID</t>
   </si>
 </sst>
 </file>
@@ -125,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -233,11 +242,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -253,6 +299,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -551,11 +604,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -569,7 +620,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -597,9 +648,7 @@
       <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
@@ -641,13 +690,24 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -657,10 +717,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +733,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -682,83 +742,92 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="G2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="18"/>
+      <c r="G2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="21"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="16"/>
+      <c r="G6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="19"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="G7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="16"/>
+      <c r="G7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="19"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="7"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="13"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -9,11 +9,12 @@
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
+    <sheet name="04-29-2022" r:id="rId6" sheetId="3"/>
     <sheet name="Daily Attendance Template" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -111,12 +112,36 @@
   </si>
   <si>
     <t>Visitor 2 ID</t>
+  </si>
+  <si>
+    <t>1:00 AM</t>
+  </si>
+  <si>
+    <t>5:00 PM</t>
+  </si>
+  <si>
+    <t>4:27 PM</t>
+  </si>
+  <si>
+    <t>Leaving
+Camp</t>
+  </si>
+  <si>
+    <t>4:29 PM</t>
+  </si>
+  <si>
+    <t>Leaving 
+Camp</t>
+  </si>
+  <si>
+    <t>4:30 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,15 +151,55 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="00A7E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A7E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="B7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="B7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE599"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -279,11 +344,14 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -324,6 +392,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,12 +687,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.2578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.44921875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.84765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.3125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -686,6 +763,9 @@
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -725,10 +805,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -832,4 +912,165 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="false">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" customWidth="true" width="8.484375" collapsed="true" bestFit="true"/>
+    <col min="2" max="2" customWidth="true" width="15.04296875" collapsed="true" bestFit="true"/>
+    <col min="1" max="1" customWidth="true" width="8.2578125" collapsed="true" bestFit="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="17.44921875" collapsed="true" bestFit="true"/>
+    <col min="4" max="4" customWidth="true" width="9.3125" collapsed="true" bestFit="true"/>
+    <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.62109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s" s="24">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s" s="23">
+        <v>33</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="27">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s" s="28">
+        <v>36</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="G4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="8">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,16 +5,15 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
-    <sheet name="04-29-2022" r:id="rId6" sheetId="3"/>
     <sheet name="Daily Attendance Template" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -112,36 +111,12 @@
   </si>
   <si>
     <t>Visitor 2 ID</t>
-  </si>
-  <si>
-    <t>1:00 AM</t>
-  </si>
-  <si>
-    <t>5:00 PM</t>
-  </si>
-  <si>
-    <t>4:27 PM</t>
-  </si>
-  <si>
-    <t>Leaving
-Camp</t>
-  </si>
-  <si>
-    <t>4:29 PM</t>
-  </si>
-  <si>
-    <t>Leaving 
-Camp</t>
-  </si>
-  <si>
-    <t>4:30 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,55 +126,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="00A7E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A7E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="EA9999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="EA9999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="B7E1CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="B7E1CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFE599"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE599"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -344,14 +279,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <right style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -368,10 +300,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -380,27 +318,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,16 +606,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.2578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.04296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.44921875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.84765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.3125" collapsed="true"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -763,9 +688,6 @@
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -799,16 +721,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="9" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -831,70 +753,70 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="13"/>
     </row>
   </sheetData>
@@ -912,165 +834,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="false">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" customWidth="true" width="8.484375" collapsed="true" bestFit="true"/>
-    <col min="2" max="2" customWidth="true" width="15.04296875" collapsed="true" bestFit="true"/>
-    <col min="1" max="1" customWidth="true" width="8.2578125" collapsed="true" bestFit="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="17.44921875" collapsed="true" bestFit="true"/>
-    <col min="4" max="4" customWidth="true" width="9.3125" collapsed="true" bestFit="true"/>
-    <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.62109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s" s="24">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s" s="23">
-        <v>33</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s" s="27">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s" s="28">
-        <v>36</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="G4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="6" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="6" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="7" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="13" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="8">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -722,7 +722,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -9,11 +9,12 @@
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
-    <sheet name="Daily Attendance Template" sheetId="1" r:id="rId2"/>
+    <sheet name="05-03-2022" sheetId="3" r:id="rId2"/>
+    <sheet name="Daily Attendance Template" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -111,12 +112,35 @@
   </si>
   <si>
     <t>Visitor 2 ID</t>
+  </si>
+  <si>
+    <t>1:00 AM</t>
+  </si>
+  <si>
+    <t>5:00 PM</t>
+  </si>
+  <si>
+    <t>10:02 PM</t>
+  </si>
+  <si>
+    <t>10:03 PM</t>
+  </si>
+  <si>
+    <t>Day 
+Off</t>
+  </si>
+  <si>
+    <t>10:40 PM</t>
+  </si>
+  <si>
+    <t>10:40 PM (visitor)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,15 +150,45 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A7E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="B7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="B7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE599"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -279,11 +333,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -300,6 +363,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -324,6 +393,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,17 +681,17 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+      <selection activeCell="D2" sqref="D2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.2578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.44921875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.84765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.3125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -650,7 +724,9 @@
       <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="n">
+        <v>1.0</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
@@ -722,15 +798,180 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.6015625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.2578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.44921875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.6015625" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.62109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="19">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0.9194444444444444</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="6" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="6" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -753,70 +994,70 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="21"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="13"/>
     </row>
   </sheetData>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,10 +5,11 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
+    <sheet name="05-04-2022" r:id="rId7" sheetId="4"/>
     <sheet name="05-03-2022" sheetId="3" r:id="rId2"/>
     <sheet name="Daily Attendance Template" sheetId="1" r:id="rId3"/>
   </sheets>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -120,20 +121,25 @@
     <t>5:00 PM</t>
   </si>
   <si>
-    <t>10:02 PM</t>
-  </si>
-  <si>
-    <t>10:03 PM</t>
+    <t>7:05 PM</t>
+  </si>
+  <si>
+    <t>Leaving 
+Camp</t>
+  </si>
+  <si>
+    <t>Night 
+Off</t>
   </si>
   <si>
     <t>Day 
 Off</t>
   </si>
   <si>
-    <t>10:40 PM</t>
-  </si>
-  <si>
-    <t>10:40 PM (visitor)</t>
+    <t>7:06 PM</t>
+  </si>
+  <si>
+    <t>Yesterday (7:05 PM)</t>
   </si>
 </sst>
 </file>
@@ -150,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,27 +174,22 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="B7E1CD"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="B7E1CD"/>
+        <fgColor rgb="FFB7E1CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor rgb="FFE599"/>
+        <fgColor rgb="00A7E1"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE599"/>
+      <patternFill patternType="none">
+        <fgColor rgb="EA9999"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -342,11 +343,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -363,12 +367,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -393,11 +401,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,12 +701,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.2578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.04296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.44921875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.84765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.3125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -724,8 +739,8 @@
       <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>1.0</v>
+      <c r="D2" s="1">
+        <v>2</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -764,6 +779,9 @@
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -798,18 +816,18 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.6015625" collapsed="true"/>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.2578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.04296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.44921875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.6015625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
     <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.62109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -831,24 +849,24 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="19">
-        <v>0.92013888888888884</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="E2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="4" t="s">
         <v>30</v>
       </c>
@@ -858,92 +876,127 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="23"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="18">
-        <v>0.9194444444444444</v>
-      </c>
-      <c r="G4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" s="20" t="s">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="6" t="n">
-        <v>2.0</v>
+      <c r="H6" s="27"/>
+      <c r="I6" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" s="22" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="6" t="n">
-        <v>2.0</v>
+      <c r="H7" s="27"/>
+      <c r="I7" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="24" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="7" t="n">
-        <v>0.0</v>
+      <c r="H8" s="29"/>
+      <c r="I8" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="13" t="n">
-        <v>0.0</v>
+      <c r="H10" s="31"/>
+      <c r="I10" s="13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
@@ -994,70 +1047,70 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="23"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="23"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="27"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="13"/>
     </row>
   </sheetData>
@@ -1075,4 +1128,189 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="false">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="8.62109375" collapsed="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="34">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s" s="33">
+        <v>33</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="37">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s" s="36">
+        <v>34</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="40">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s" s="39">
+        <v>35</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s" s="43">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s" s="42">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="6" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="7" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="8">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -122,14 +122,6 @@
   </si>
   <si>
     <t>7:05 PM</t>
-  </si>
-  <si>
-    <t>Leaving 
-Camp</t>
-  </si>
-  <si>
-    <t>Night 
-Off</t>
   </si>
   <si>
     <t>Day 
@@ -140,6 +132,12 @@
   </si>
   <si>
     <t>Yesterday (7:05 PM)</t>
+  </si>
+  <si>
+    <t>10:47 PM</t>
+  </si>
+  <si>
+    <t>10:48 PM</t>
   </si>
 </sst>
 </file>
@@ -156,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,12 +178,27 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor rgb="EA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor rgb="00A7E1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor rgb="EA9999"/>
+        <fgColor rgb="B7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE599"/>
       </patternFill>
     </fill>
   </fills>
@@ -350,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -367,15 +380,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -401,18 +413,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,12 +710,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.2578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.44921875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.84765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.3125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -742,7 +751,9 @@
       <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="n">
+        <v>1.0</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -755,7 +766,9 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
@@ -768,6 +781,12 @@
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -816,7 +835,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,19 +873,19 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="24" t="s">
+      <c r="E2" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="4" t="s">
         <v>30</v>
       </c>
@@ -878,19 +897,19 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="27"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="5" t="s">
         <v>30</v>
       </c>
@@ -902,19 +921,19 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="28" t="s">
+      <c r="E4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="9" t="s">
         <v>31</v>
       </c>
@@ -926,17 +945,17 @@
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -946,19 +965,19 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="27"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="6">
         <v>4</v>
       </c>
@@ -966,37 +985,36 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="27"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="31"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="13">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
@@ -1008,6 +1026,7 @@
     <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1047,70 +1066,70 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="27"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="27"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="27"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="31"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="13"/>
     </row>
   </sheetData>
@@ -1140,11 +1159,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" customWidth="true" width="19.1484375" collapsed="true" bestFit="true"/>
+    <col min="2" max="2" customWidth="true" width="15.04296875" collapsed="true" bestFit="true"/>
     <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="8.62109375" collapsed="true" bestFit="true"/>
+    <col min="1" max="1" customWidth="true" width="8.2578125" collapsed="true" bestFit="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="17.44921875" collapsed="true" bestFit="true"/>
+    <col min="4" max="4" customWidth="true" width="19.1484375" collapsed="true" bestFit="true"/>
+    <col min="9" max="9" customWidth="true" width="9.6015625" collapsed="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1166,135 +1187,122 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s" s="34">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C2" t="s" s="32">
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s" s="33">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s" s="31">
         <v>33</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s" s="37">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s" s="36">
-        <v>34</v>
-      </c>
-      <c r="G3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s" s="34">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s" s="33">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="27"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s" s="40">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C4" t="s" s="37">
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
       </c>
       <c r="E4" t="s" s="39">
-        <v>35</v>
-      </c>
-      <c r="G4" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s" s="43">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s" s="42">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="27"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="6" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="27"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="31"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="13" t="n">
         <v>1.0</v>
       </c>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -9,8 +9,8 @@
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
-    <sheet name="05-04-2022" r:id="rId7" sheetId="4"/>
-    <sheet name="05-03-2022" sheetId="3" r:id="rId2"/>
+    <sheet name="05-05-2022" r:id="rId7" sheetId="4"/>
+    <sheet name="05-04-2022" sheetId="3" r:id="rId2"/>
     <sheet name="Daily Attendance Template" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -134,10 +134,35 @@
     <t>Yesterday (7:05 PM)</t>
   </si>
   <si>
-    <t>10:47 PM</t>
-  </si>
-  <si>
-    <t>10:48 PM</t>
+    <t>11:41 AM</t>
+  </si>
+  <si>
+    <t>11:42 AM</t>
+  </si>
+  <si>
+    <t>11:45 AM</t>
+  </si>
+  <si>
+    <t>11:47 AM</t>
+  </si>
+  <si>
+    <t>11:49 AM</t>
+  </si>
+  <si>
+    <t>Night 
+Off</t>
+  </si>
+  <si>
+    <t>11:50 AM</t>
+  </si>
+  <si>
+    <t>11:53 AM</t>
+  </si>
+  <si>
+    <t>6:51 PM (visitor)</t>
+  </si>
+  <si>
+    <t>6:52 PM</t>
   </si>
 </sst>
 </file>
@@ -168,11 +193,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB7E1CD"/>
       </patternFill>
     </fill>
@@ -182,8 +202,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="00A7E1"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="EA9999"/>
       </patternFill>
     </fill>
     <fill>
@@ -201,6 +221,11 @@
         <fgColor rgb="FFE599"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="00A7E1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -363,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -380,15 +405,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -413,15 +433,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,7 +740,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,12 +783,8 @@
       <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -766,8 +797,8 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
+      <c r="D3" s="1" t="n">
+        <v>1.0</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -782,11 +813,11 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="D4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -799,8 +830,8 @@
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -835,7 +866,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,150 +899,105 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="23" t="s">
+      <c r="E2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="24"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="E3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="26"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="27" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="G4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="28"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="26"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="26"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="28"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="30"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1066,70 +1052,70 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="24"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="26"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="28"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="26"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="26"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="28"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="30"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="13"/>
     </row>
   </sheetData>
@@ -1159,13 +1145,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" customWidth="true" width="19.1484375" collapsed="true" bestFit="true"/>
-    <col min="2" max="2" customWidth="true" width="15.04296875" collapsed="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.2578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.44921875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.1484375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.73828125" collapsed="true"/>
     <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="1" max="1" customWidth="true" width="8.2578125" collapsed="true" bestFit="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="17.44921875" collapsed="true" bestFit="true"/>
-    <col min="4" max="4" customWidth="true" width="19.1484375" collapsed="true" bestFit="true"/>
-    <col min="9" max="9" customWidth="true" width="9.6015625" collapsed="true" bestFit="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.73828125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1192,43 +1178,43 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="32">
+      <c r="C2" t="s" s="27">
         <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s" s="31">
-        <v>33</v>
-      </c>
-      <c r="G2" s="23" t="s">
+      <c r="E2" t="s" s="28">
+        <v>36</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="24"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s" s="34">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s" s="33">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="32">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s" s="34">
+        <v>39</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="26"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="5" t="s">
         <v>30</v>
       </c>
@@ -1238,73 +1224,99 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s" s="37">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s" s="39">
-        <v>37</v>
-      </c>
-      <c r="G4" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s" s="38">
+        <v>42</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="28"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="42">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s" s="48">
+        <v>45</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="25" t="s">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s" s="44">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s" s="47">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="26"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="6" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="26"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="6" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="28"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="30"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -134,35 +134,16 @@
     <t>Yesterday (7:05 PM)</t>
   </si>
   <si>
-    <t>11:41 AM</t>
-  </si>
-  <si>
-    <t>11:42 AM</t>
-  </si>
-  <si>
-    <t>11:45 AM</t>
-  </si>
-  <si>
-    <t>11:47 AM</t>
-  </si>
-  <si>
-    <t>11:49 AM</t>
-  </si>
-  <si>
-    <t>Night 
-Off</t>
-  </si>
-  <si>
-    <t>11:50 AM</t>
-  </si>
-  <si>
-    <t>11:53 AM</t>
-  </si>
-  <si>
-    <t>6:51 PM (visitor)</t>
-  </si>
-  <si>
-    <t>6:52 PM</t>
+    <t>Yesterday (7:06 PM)</t>
+  </si>
+  <si>
+    <t>6:59 PM (visitor)</t>
+  </si>
+  <si>
+    <t>6:59 PM</t>
+  </si>
+  <si>
+    <t>7:00 PM</t>
   </si>
 </sst>
 </file>
@@ -170,7 +151,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,8 +159,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +188,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF00A7E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -221,11 +225,6 @@
         <fgColor rgb="FFE599"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="00A7E1"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -385,10 +384,11 @@
       <right style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -409,6 +409,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -433,32 +435,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -797,8 +788,8 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>1.0</v>
+      <c r="D3" s="1">
+        <v>1</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -814,10 +805,10 @@
         <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -830,8 +821,8 @@
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
-        <v>2.0</v>
+      <c r="D5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -866,7 +857,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,10 +904,10 @@
       <c r="E2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="4" t="s">
         <v>30</v>
       </c>
@@ -937,21 +928,34 @@
       <c r="E3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="G4" s="22" t="s">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="9" t="s">
         <v>31</v>
       </c>
@@ -959,45 +963,45 @@
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="25"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1052,70 +1056,70 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="25"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="13"/>
     </row>
   </sheetData>
@@ -1145,13 +1149,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.2578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.04296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.44921875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.1484375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.73828125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.1484375" collapsed="true" bestFit="true"/>
+    <col min="2" max="2" customWidth="true" width="15.04296875" collapsed="true" bestFit="true"/>
     <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.73828125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="8.2578125" collapsed="true" bestFit="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="17.44921875" collapsed="true" bestFit="true"/>
+    <col min="4" max="4" customWidth="true" width="19.1484375" collapsed="true" bestFit="true"/>
+    <col min="9" max="9" customWidth="true" width="8.62109375" collapsed="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1178,145 +1182,132 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="27">
+      <c r="C2" t="s" s="29">
         <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s" s="28">
-        <v>36</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="E2" t="s" s="33">
+        <v>38</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s" s="32">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s" s="31">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s" s="32">
         <v>37</v>
       </c>
-      <c r="E3" t="s" s="34">
-        <v>39</v>
-      </c>
-      <c r="G3" s="20" t="s">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s" s="37">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s" s="38">
-        <v>42</v>
-      </c>
-      <c r="G4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s" s="36">
+        <v>33</v>
+      </c>
+      <c r="G4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s" s="42">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s" s="48">
-        <v>45</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+        <v>26</v>
+      </c>
+      <c r="C5" t="s" s="39">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s" s="38">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s" s="44">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s" s="47">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="20" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="6" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="6" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="25"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,12 +5,12 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
-    <sheet name="05-05-2022" r:id="rId7" sheetId="4"/>
-    <sheet name="05-04-2022" sheetId="3" r:id="rId2"/>
+    <sheet name="05-06-2022" r:id="rId7" sheetId="4"/>
+    <sheet name="05-05-2022" sheetId="3" r:id="rId2"/>
     <sheet name="Daily Attendance Template" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -135,15 +135,6 @@
   </si>
   <si>
     <t>Yesterday (7:06 PM)</t>
-  </si>
-  <si>
-    <t>6:59 PM (visitor)</t>
-  </si>
-  <si>
-    <t>6:59 PM</t>
-  </si>
-  <si>
-    <t>7:00 PM</t>
   </si>
 </sst>
 </file>
@@ -388,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -439,12 +430,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
   </cellXfs>
@@ -730,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,9 +776,7 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
@@ -805,10 +791,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -820,9 +803,6 @@
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -856,7 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -1188,8 +1168,8 @@
       <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s" s="33">
-        <v>38</v>
+      <c r="E2" t="s" s="32">
+        <v>31</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>17</v>
@@ -1209,8 +1189,8 @@
       <c r="C3" t="s" s="31">
         <v>27</v>
       </c>
-      <c r="D3" t="s" s="32">
-        <v>37</v>
+      <c r="D3" t="s" s="30">
+        <v>25</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -1230,13 +1210,13 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="37">
+      <c r="C4" t="s" s="36">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s" s="36">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s" s="35">
         <v>33</v>
       </c>
       <c r="G4" s="24" t="s">
@@ -1248,21 +1228,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s" s="39">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s" s="38">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="8"/>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -9,13 +9,12 @@
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
-    <sheet name="05-06-2022" r:id="rId7" sheetId="4"/>
     <sheet name="05-05-2022" sheetId="3" r:id="rId2"/>
     <sheet name="Daily Attendance Template" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -129,19 +128,12 @@
   </si>
   <si>
     <t>7:06 PM</t>
-  </si>
-  <si>
-    <t>Yesterday (7:05 PM)</t>
-  </si>
-  <si>
-    <t>Yesterday (7:06 PM)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,33 +183,8 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="EA9999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="EA9999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="B7E1CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFE599"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE599"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -371,15 +338,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <right style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -426,15 +390,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -724,12 +679,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.2578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.04296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.44921875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.84765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.3125" collapsed="true"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -789,9 +744,6 @@
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -842,13 +794,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1010,10 +962,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="9" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1117,178 +1069,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="false">
-      <selection activeCell="P5" sqref="P5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" customWidth="true" width="19.1484375" collapsed="true" bestFit="true"/>
-    <col min="2" max="2" customWidth="true" width="15.04296875" collapsed="true" bestFit="true"/>
-    <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="1" max="1" customWidth="true" width="8.2578125" collapsed="true" bestFit="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="17.44921875" collapsed="true" bestFit="true"/>
-    <col min="4" max="4" customWidth="true" width="19.1484375" collapsed="true" bestFit="true"/>
-    <col min="9" max="9" customWidth="true" width="8.62109375" collapsed="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s" s="29">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s" s="32">
-        <v>31</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s" s="31">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s" s="30">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s" s="36">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s" s="35">
-        <v>33</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="6" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="6" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="7" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="8">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -9,12 +9,13 @@
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
-    <sheet name="05-05-2022" sheetId="3" r:id="rId2"/>
+    <sheet name="05-07-2022" r:id="rId7" sheetId="4"/>
+    <sheet name="05-06-2022" sheetId="3" r:id="rId2"/>
     <sheet name="Daily Attendance Template" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -128,12 +129,28 @@
   </si>
   <si>
     <t>7:06 PM</t>
+  </si>
+  <si>
+    <t>Yesterday (7:05 PM)</t>
+  </si>
+  <si>
+    <t>Yesterday (7:06 PM)</t>
+  </si>
+  <si>
+    <t>1:24 PM</t>
+  </si>
+  <si>
+    <t>1:22 PM</t>
+  </si>
+  <si>
+    <t>1:26 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,8 +200,33 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="B7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE599"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -338,12 +380,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -390,6 +435,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -679,12 +735,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.2578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.44921875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.84765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.3125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -745,6 +801,9 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E4" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -755,6 +814,9 @@
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -794,13 +856,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -962,10 +1024,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1069,4 +1131,178 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="false">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" customWidth="true" width="19.1484375" collapsed="true" bestFit="true"/>
+    <col min="2" max="2" customWidth="true" width="15.04296875" collapsed="true" bestFit="true"/>
+    <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="8.2578125" collapsed="true" bestFit="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="17.44921875" collapsed="true" bestFit="true"/>
+    <col min="4" max="4" customWidth="true" width="19.1484375" collapsed="true" bestFit="true"/>
+    <col min="9" max="9" customWidth="true" width="8.62109375" collapsed="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s" s="29">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s" s="36">
+        <v>39</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s" s="31">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s" s="34">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s" s="37">
+        <v>39</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="6" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="6" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="8">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,17 +5,16 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
-    <sheet name="05-07-2022" r:id="rId7" sheetId="4"/>
     <sheet name="05-06-2022" sheetId="3" r:id="rId2"/>
     <sheet name="Daily Attendance Template" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -129,28 +128,12 @@
   </si>
   <si>
     <t>7:06 PM</t>
-  </si>
-  <si>
-    <t>Yesterday (7:05 PM)</t>
-  </si>
-  <si>
-    <t>Yesterday (7:06 PM)</t>
-  </si>
-  <si>
-    <t>1:24 PM</t>
-  </si>
-  <si>
-    <t>1:22 PM</t>
-  </si>
-  <si>
-    <t>1:26 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,33 +183,8 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="EA9999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="EA9999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="B7E1CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFE599"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE599"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -380,15 +338,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <right style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -435,17 +390,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -729,18 +673,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.2578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.04296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.44921875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.84765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.3125" collapsed="true"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -801,8 +745,11 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="n">
-        <v>1.0</v>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -815,8 +762,8 @@
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
-        <v>1.0</v>
+      <c r="D5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -850,19 +797,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1024,10 +971,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="9" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1131,178 +1078,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="false">
-      <selection activeCell="P5" sqref="P5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" customWidth="true" width="19.1484375" collapsed="true" bestFit="true"/>
-    <col min="2" max="2" customWidth="true" width="15.04296875" collapsed="true" bestFit="true"/>
-    <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="1" max="1" customWidth="true" width="8.2578125" collapsed="true" bestFit="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="17.44921875" collapsed="true" bestFit="true"/>
-    <col min="4" max="4" customWidth="true" width="19.1484375" collapsed="true" bestFit="true"/>
-    <col min="9" max="9" customWidth="true" width="8.62109375" collapsed="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s" s="29">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s" s="36">
-        <v>39</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s" s="31">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s" s="30">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s" s="34">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s" s="37">
-        <v>39</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="6" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="6" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="7" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="8">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,12 +5,11 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
-    <sheet name="05-06-2022" sheetId="3" r:id="rId2"/>
-    <sheet name="Daily Attendance Template" sheetId="1" r:id="rId3"/>
+    <sheet name="Daily Attendance Template" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -57,18 +56,6 @@
     <t>Staff Member 4</t>
   </si>
   <si>
-    <t>Staff Member 1 ID</t>
-  </si>
-  <si>
-    <t>Staff Member 2 ID</t>
-  </si>
-  <si>
-    <t>Staff Member 3 ID</t>
-  </si>
-  <si>
-    <t>Staff Member 4 ID</t>
-  </si>
-  <si>
     <t>Night Off Curfew</t>
   </si>
   <si>
@@ -105,36 +92,32 @@
     <t>Visitor 1</t>
   </si>
   <si>
-    <t>Visitor 1 ID</t>
-  </si>
-  <si>
     <t>Visitor 2</t>
   </si>
   <si>
-    <t>Visitor 2 ID</t>
-  </si>
-  <si>
-    <t>1:00 AM</t>
-  </si>
-  <si>
-    <t>5:00 PM</t>
-  </si>
-  <si>
-    <t>7:05 PM</t>
-  </si>
-  <si>
-    <t>Day 
-Off</t>
-  </si>
-  <si>
-    <t>7:06 PM</t>
+    <t>S000001</t>
+  </si>
+  <si>
+    <t>S000002</t>
+  </si>
+  <si>
+    <t>S000003</t>
+  </si>
+  <si>
+    <t>S000004</t>
+  </si>
+  <si>
+    <t>V000001</t>
+  </si>
+  <si>
+    <t>V000002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,49 +125,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00A7E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7E1CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00A7E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -329,21 +279,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -360,12 +300,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -391,8 +325,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -673,15 +606,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -689,7 +622,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -715,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -729,7 +662,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -743,13 +676,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -760,29 +687,26 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
@@ -794,174 +718,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="13">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -979,7 +735,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -988,79 +744,79 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="G2" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="21"/>
+      <c r="G2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="15"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="G3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="23"/>
+      <c r="G3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="17"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="G4" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="25"/>
+      <c r="G4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="19"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="23"/>
+      <c r="G6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="17"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="G7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="23"/>
+      <c r="G7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="17"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="G8" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="25"/>
+      <c r="G8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="19"/>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="27"/>
+      <c r="G10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="21"/>
       <c r="I10" s="13"/>
     </row>
   </sheetData>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,15 +5,16 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
+    <sheet name="05-07-2022" r:id="rId6" sheetId="3"/>
     <sheet name="Daily Attendance Template" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -111,12 +112,26 @@
   </si>
   <si>
     <t>V000002</t>
+  </si>
+  <si>
+    <t>1:00 AM</t>
+  </si>
+  <si>
+    <t>5:00 PM</t>
+  </si>
+  <si>
+    <t>8:28 PM</t>
+  </si>
+  <si>
+    <t>Leaving 
+Camp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,15 +141,35 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="00A7E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A7E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EA999E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EA999E"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -279,11 +314,14 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -324,6 +362,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,18 +656,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.2578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="8.9765625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.84765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.3125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -721,16 +771,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -834,4 +884,191 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="false" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" customWidth="true" width="8.296875" collapsed="true" bestFit="true"/>
+    <col min="2" max="2" customWidth="true" width="15.04296875" collapsed="true" bestFit="true"/>
+    <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="8.2578125" collapsed="true" bestFit="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="8.73828125" collapsed="true" bestFit="true"/>
+    <col min="4" max="4" customWidth="true" width="9.3125" collapsed="true" bestFit="true"/>
+    <col min="9" max="9" customWidth="true" width="8.62109375" collapsed="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="24">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s" s="23">
+        <v>33</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s" s="26">
+        <v>33</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="30">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s" s="29">
+        <v>33</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="33">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s" s="32">
+        <v>33</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="6" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="7" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="8">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,16 +5,15 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
-    <sheet name="05-07-2022" r:id="rId6" sheetId="3"/>
     <sheet name="Daily Attendance Template" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -112,26 +111,12 @@
   </si>
   <si>
     <t>V000002</t>
-  </si>
-  <si>
-    <t>1:00 AM</t>
-  </si>
-  <si>
-    <t>5:00 PM</t>
-  </si>
-  <si>
-    <t>8:28 PM</t>
-  </si>
-  <si>
-    <t>Leaving 
-Camp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,35 +126,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="00A7E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A7E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="EA999E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="EA999E"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -314,14 +279,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <right style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -362,18 +324,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,17 +610,17 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.2578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.04296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="8.9765625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.84765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.3125" collapsed="true"/>
+    <col min="1" max="1" width="8.26171875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.05078125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.83984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.3125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -690,7 +640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -704,7 +654,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -718,7 +668,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -729,7 +679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -740,7 +690,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -751,7 +701,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -775,15 +725,15 @@
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="9" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="2" width="20.68359375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.68359375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="10.68359375" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="10.68359375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -800,7 +750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="14" t="s">
@@ -809,7 +759,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="G3" s="16" t="s">
@@ -818,7 +768,7 @@
       <c r="H3" s="17"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="G4" s="18" t="s">
@@ -827,14 +777,14 @@
       <c r="H4" s="19"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="G6" s="16" t="s">
@@ -843,7 +793,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="G7" s="16" t="s">
@@ -852,7 +802,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="G8" s="18" t="s">
@@ -861,8 +811,8 @@
       <c r="H8" s="19"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="10" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G10" s="20" t="s">
         <v>20</v>
       </c>
@@ -884,191 +834,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" customWidth="true" width="8.296875" collapsed="true" bestFit="true"/>
-    <col min="2" max="2" customWidth="true" width="15.04296875" collapsed="true" bestFit="true"/>
-    <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="1" max="1" customWidth="true" width="8.2578125" collapsed="true" bestFit="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="8.73828125" collapsed="true" bestFit="true"/>
-    <col min="4" max="4" customWidth="true" width="9.3125" collapsed="true" bestFit="true"/>
-    <col min="9" max="9" customWidth="true" width="8.62109375" collapsed="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s" s="24">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s" s="23">
-        <v>33</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s" s="27">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s" s="26">
-        <v>33</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s" s="29">
-        <v>33</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s" s="33">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s" s="32">
-        <v>33</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="6" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="6" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="7" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="13" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="8">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,15 +5,16 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
+    <sheet name="06-07-2022" r:id="rId6" sheetId="3"/>
     <sheet name="Daily Attendance Template" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -68,15 +69,6 @@
     <t>Position</t>
   </si>
   <si>
-    <t># Left Camp</t>
-  </si>
-  <si>
-    <t># Returned to Camp</t>
-  </si>
-  <si>
-    <t># Still out of Camp</t>
-  </si>
-  <si>
     <t>Time Out</t>
   </si>
   <si>
@@ -111,12 +103,34 @@
   </si>
   <si>
     <t>V000002</t>
+  </si>
+  <si>
+    <t># Left</t>
+  </si>
+  <si>
+    <t># Returned</t>
+  </si>
+  <si>
+    <t># Still Out</t>
+  </si>
+  <si>
+    <t>12:00 AM</t>
+  </si>
+  <si>
+    <t>12:30 AM</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Not in Bunk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,15 +140,25 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EA9999"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -279,11 +303,14 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -324,6 +351,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,17 +649,17 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.26171875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.05078125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="4.83984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.3125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -640,7 +679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -648,13 +687,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -662,13 +701,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -676,10 +715,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -687,29 +726,29 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -722,18 +761,18 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="G8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.68359375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.68359375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="10.68359375" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="10.68359375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -744,13 +783,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="14" t="s">
@@ -759,7 +798,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="G3" s="16" t="s">
@@ -768,7 +807,7 @@
       <c r="H3" s="17"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="G4" s="18" t="s">
@@ -777,50 +816,49 @@
       <c r="H4" s="19"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="G6" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="G7" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="G8" s="18" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="10" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G10" s="20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
@@ -834,4 +872,214 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="false" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="9.73828125" collapsed="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="23">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s" s="22">
+        <v>33</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="25">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s" s="24">
+        <v>33</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s" s="26">
+        <v>33</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="29">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s" s="28">
+        <v>33</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s" s="31">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s" s="30">
+        <v>33</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="6" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s" s="33">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s" s="32">
+        <v>33</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="7" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -114,16 +114,19 @@
     <t># Still Out</t>
   </si>
   <si>
-    <t>12:00 AM</t>
-  </si>
-  <si>
-    <t>12:30 AM</t>
+    <t>9:55 PM</t>
+  </si>
+  <si>
+    <t>9:57 PM</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
     <t>Not in Bunk</t>
+  </si>
+  <si>
+    <t>9:54 PM</t>
   </si>
 </sst>
 </file>
@@ -140,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +160,26 @@
         <fgColor rgb="EA9999"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="B7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="B7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE599"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -310,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -363,6 +386,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,12 +678,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.2578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="8.9765625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.84765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.3125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -690,7 +717,9 @@
         <v>21</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -703,7 +732,9 @@
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
@@ -717,6 +748,9 @@
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -728,6 +762,9 @@
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -739,6 +776,9 @@
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D6" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -749,6 +789,9 @@
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -884,11 +927,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" customWidth="true" width="11.51953125" collapsed="true" bestFit="true"/>
+    <col min="2" max="2" customWidth="true" width="15.04296875" collapsed="true" bestFit="true"/>
     <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="9.73828125" collapsed="true" bestFit="true"/>
+    <col min="1" max="1" customWidth="true" width="8.2578125" collapsed="true" bestFit="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="8.9765625" collapsed="true" bestFit="true"/>
+    <col min="4" max="4" customWidth="true" width="9.3125" collapsed="true" bestFit="true"/>
+    <col min="9" max="9" customWidth="true" width="8.484375" collapsed="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -921,8 +966,8 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s" s="22">
-        <v>33</v>
+      <c r="E2" t="s" s="34">
+        <v>34</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>13</v>
@@ -969,8 +1014,8 @@
       <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s" s="26">
-        <v>33</v>
+      <c r="E4" t="s" s="36">
+        <v>34</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>12</v>
@@ -1045,7 +1090,7 @@
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="6" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1056,7 +1101,7 @@
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="7" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,16 +5,15 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
-    <sheet name="06-07-2022" r:id="rId6" sheetId="3"/>
     <sheet name="Daily Attendance Template" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -112,28 +111,12 @@
   </si>
   <si>
     <t># Still Out</t>
-  </si>
-  <si>
-    <t>9:55 PM</t>
-  </si>
-  <si>
-    <t>9:57 PM</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Not in Bunk</t>
-  </si>
-  <si>
-    <t>9:54 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,45 +126,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="EA9999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="EA9999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="B7E1CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="B7E1CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFE599"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE599"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -326,14 +279,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <right style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -374,22 +324,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,12 +612,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.2578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.04296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="8.9765625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.84765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.3125" collapsed="true"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -716,7 +650,9 @@
       <c r="C2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
@@ -776,8 +712,8 @@
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="n">
-        <v>2.0</v>
+      <c r="D6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -790,8 +726,8 @@
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="n">
-        <v>2.0</v>
+      <c r="D7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -809,10 +745,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="9" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -915,216 +851,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" customWidth="true" width="11.51953125" collapsed="true" bestFit="true"/>
-    <col min="2" max="2" customWidth="true" width="15.04296875" collapsed="true" bestFit="true"/>
-    <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="1" max="1" customWidth="true" width="8.2578125" collapsed="true" bestFit="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="8.9765625" collapsed="true" bestFit="true"/>
-    <col min="4" max="4" customWidth="true" width="9.3125" collapsed="true" bestFit="true"/>
-    <col min="9" max="9" customWidth="true" width="8.484375" collapsed="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="23">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s" s="34">
-        <v>34</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s" s="25">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s" s="24">
-        <v>33</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s" s="27">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s" s="36">
-        <v>34</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="29">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s" s="28">
-        <v>33</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s" s="31">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s" s="30">
-        <v>33</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="6" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s" s="33">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s" s="32">
-        <v>33</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="6" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="7" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,11 +5,11 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
-    <sheet name="Daily Attendance Template" sheetId="1" r:id="rId2"/>
+    <sheet name="Daily Attendance Template" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,12 +650,8 @@
       <c r="C2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -668,9 +664,7 @@
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
@@ -684,9 +678,6 @@
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -698,9 +689,6 @@
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -712,9 +700,6 @@
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -725,9 +710,6 @@
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>

--- a/resources/files/Sample_Attendance_File.xlsx
+++ b/resources/files/Sample_Attendance_File.xlsx
@@ -5,10 +5,12 @@
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
+    <sheet name="06-22-2022" r:id="rId8" sheetId="5"/>
+    <sheet name="06-21-2022" r:id="rId7" sheetId="4"/>
     <sheet name="05-07-2022" r:id="rId6" sheetId="3"/>
     <sheet name="Daily Attendance Template" sheetId="1" r:id="rId2"/>
   </sheets>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -896,12 +898,322 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" customWidth="true" width="8.296875" collapsed="true" bestFit="true"/>
-    <col min="2" max="2" customWidth="true" width="15.04296875" collapsed="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.2578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="8.73828125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.3125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.296875" collapsed="true"/>
     <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="1" max="1" customWidth="true" width="8.2578125" collapsed="true" bestFit="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="8.73828125" collapsed="true" bestFit="true"/>
-    <col min="4" max="4" customWidth="true" width="9.3125" collapsed="true" bestFit="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.62109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="24">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s" s="23">
+        <v>33</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s" s="26">
+        <v>33</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="30">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s" s="29">
+        <v>33</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="33">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s" s="32">
+        <v>33</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="6" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="7" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="8">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="false" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.62109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="G2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="G3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="G4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="13"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="8">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="false" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="10.7109375" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="8.62109375" collapsed="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -923,21 +1235,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s" s="24">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s" s="23">
-        <v>33</v>
-      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="G2" s="14" t="s">
         <v>13</v>
       </c>
@@ -947,21 +1246,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s" s="27">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s" s="26">
-        <v>33</v>
-      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="G3" s="16" t="s">
         <v>11</v>
       </c>
@@ -971,21 +1257,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s" s="30">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s" s="29">
-        <v>33</v>
-      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="G4" s="18" t="s">
         <v>12</v>
       </c>
@@ -995,21 +1268,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s" s="33">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s" s="32">
-        <v>33</v>
-      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="8"/>
@@ -1021,9 +1281,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="17"/>
-      <c r="I6" s="6" t="n">
-        <v>4.0</v>
-      </c>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="3"/>
@@ -1032,9 +1290,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="17"/>
-      <c r="I7" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
@@ -1043,9 +1299,7 @@
         <v>17</v>
       </c>
       <c r="H8" s="19"/>
-      <c r="I8" s="7" t="n">
-        <v>4.0</v>
-      </c>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1053,9 +1307,7 @@
         <v>20</v>
       </c>
       <c r="H10" s="21"/>
-      <c r="I10" s="13" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="I10" s="13"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
